--- a/Monthly Billing Convertion Tool/Monthly Billing Tool Extraction Data Result.xlsx
+++ b/Monthly Billing Convertion Tool/Monthly Billing Tool Extraction Data Result.xlsx
@@ -8602,7 +8602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8620,6 +8620,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Move this File to another if needed:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>._invoice-rekening-listrik-544103610711-202302-.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
